--- a/MATLAB_code/mean_summary_pCa.xlsx
+++ b/MATLAB_code/mean_summary_pCa.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="45" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="60" uniqueCount="5">
   <si>
     <t>curve</t>
   </si>
@@ -128,13 +128,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>1</v>
+        <v>0.96353728821906848</v>
       </c>
       <c r="D3" s="0">
         <v>950</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.0081950779186216131</v>
       </c>
     </row>
     <row r="4">
@@ -145,13 +145,13 @@
         <v>5.2999999999999998</v>
       </c>
       <c r="C4" s="0">
-        <v>0.93604133016962776</v>
+        <v>0.8610080921338723</v>
       </c>
       <c r="D4" s="0">
         <v>950</v>
       </c>
       <c r="E4" s="0">
-        <v>0.063958669830372281</v>
+        <v>0.0074784575971211745</v>
       </c>
     </row>
     <row r="5">
@@ -162,13 +162,13 @@
         <v>5.5</v>
       </c>
       <c r="C5" s="0">
-        <v>0.39147510656408374</v>
+        <v>0.58348742232183082</v>
       </c>
       <c r="D5" s="0">
         <v>950</v>
       </c>
       <c r="E5" s="0">
-        <v>0.025717643507618793</v>
+        <v>0.0045628035210848062</v>
       </c>
     </row>
     <row r="6">
@@ -179,13 +179,13 @@
         <v>5.7000000000000002</v>
       </c>
       <c r="C6" s="0">
-        <v>0.13947885690771294</v>
+        <v>0.17525298115276425</v>
       </c>
       <c r="D6" s="0">
         <v>950</v>
       </c>
       <c r="E6" s="0">
-        <v>0.013242519714420115</v>
+        <v>0.004413970264153356</v>
       </c>
     </row>
     <row r="7">
@@ -196,13 +196,13 @@
         <v>5.9000000000000004</v>
       </c>
       <c r="C7" s="0">
-        <v>0.065962374530403364</v>
+        <v>0.0499540493904361</v>
       </c>
       <c r="D7" s="0">
         <v>950</v>
       </c>
       <c r="E7" s="0">
-        <v>0.012075141548114839</v>
+        <v>0.0021450357722000339</v>
       </c>
     </row>
     <row r="8">
@@ -213,13 +213,13 @@
         <v>6.0999999999999996</v>
       </c>
       <c r="C8" s="0">
-        <v>0.02087696505848665</v>
+        <v>0.024819042448732634</v>
       </c>
       <c r="D8" s="0">
         <v>950</v>
       </c>
       <c r="E8" s="0">
-        <v>0.0014959887045615395</v>
+        <v>0.0013808150329597461</v>
       </c>
     </row>
     <row r="9">
@@ -230,13 +230,13 @@
         <v>6.2999999999999998</v>
       </c>
       <c r="C9" s="0">
-        <v>0.028399126259542953</v>
+        <v>0.013733969928802612</v>
       </c>
       <c r="D9" s="0">
         <v>950</v>
       </c>
       <c r="E9" s="0">
-        <v>0.0083819742038138759</v>
+        <v>0.0007498657037436848</v>
       </c>
     </row>
     <row r="10">
@@ -247,13 +247,13 @@
         <v>6.5</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0097563525780226448</v>
+        <v>0.012466309406428445</v>
       </c>
       <c r="D10" s="0">
         <v>950</v>
       </c>
       <c r="E10" s="0">
-        <v>0.0022956912636305175</v>
+        <v>0.00049622970778192155</v>
       </c>
     </row>
     <row r="11">
@@ -264,13 +264,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="0">
-        <v>0.0086740455416541851</v>
+        <v>0.0052022022284200862</v>
       </c>
       <c r="D11" s="0">
         <v>950</v>
       </c>
       <c r="E11" s="0">
-        <v>0.00077849527677111604</v>
+        <v>1.8696189543931157e-05</v>
       </c>
     </row>
     <row r="12">
@@ -298,13 +298,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="0">
-        <v>1</v>
+        <v>0.97574444962245332</v>
       </c>
       <c r="D13" s="0">
         <v>1150</v>
       </c>
       <c r="E13" s="0">
-        <v>0</v>
+        <v>0.0062174751204615167</v>
       </c>
     </row>
     <row r="14">
@@ -315,13 +315,13 @@
         <v>5.2999999999999998</v>
       </c>
       <c r="C14" s="0">
-        <v>0.89775022296255136</v>
+        <v>0.91322249464222849</v>
       </c>
       <c r="D14" s="0">
         <v>1150</v>
       </c>
       <c r="E14" s="0">
-        <v>0.10224977703744868</v>
+        <v>0.0053353941767176919</v>
       </c>
     </row>
     <row r="15">
@@ -332,13 +332,13 @@
         <v>5.5</v>
       </c>
       <c r="C15" s="0">
-        <v>0.60221860394952598</v>
+        <v>0.737122075645949</v>
       </c>
       <c r="D15" s="0">
         <v>1150</v>
       </c>
       <c r="E15" s="0">
-        <v>0.015377332607697913</v>
+        <v>0.0083449927572081268</v>
       </c>
     </row>
     <row r="16">
@@ -349,13 +349,13 @@
         <v>5.7000000000000002</v>
       </c>
       <c r="C16" s="0">
-        <v>0.2402723959404276</v>
+        <v>0.40418165783828963</v>
       </c>
       <c r="D16" s="0">
         <v>1150</v>
       </c>
       <c r="E16" s="0">
-        <v>0.050570061260779023</v>
+        <v>0.0086710624661628481</v>
       </c>
     </row>
     <row r="17">
@@ -366,13 +366,13 @@
         <v>5.9000000000000004</v>
       </c>
       <c r="C17" s="0">
-        <v>0.08014645328038858</v>
+        <v>0.12420783226517143</v>
       </c>
       <c r="D17" s="0">
         <v>1150</v>
       </c>
       <c r="E17" s="0">
-        <v>0.004844321895423255</v>
+        <v>0.0048295192568498322</v>
       </c>
     </row>
     <row r="18">
@@ -383,13 +383,13 @@
         <v>6.0999999999999996</v>
       </c>
       <c r="C18" s="0">
-        <v>0.055785254505105075</v>
+        <v>0.064720079568812525</v>
       </c>
       <c r="D18" s="0">
         <v>1150</v>
       </c>
       <c r="E18" s="0">
-        <v>0.0038962034442781533</v>
+        <v>0.001481239073597516</v>
       </c>
     </row>
     <row r="19">
@@ -400,13 +400,13 @@
         <v>6.2999999999999998</v>
       </c>
       <c r="C19" s="0">
-        <v>0.051529450686975453</v>
+        <v>0.045489307080122068</v>
       </c>
       <c r="D19" s="0">
         <v>1150</v>
       </c>
       <c r="E19" s="0">
-        <v>0.0016069588443962562</v>
+        <v>0.0013268531588795328</v>
       </c>
     </row>
     <row r="20">
@@ -417,13 +417,13 @@
         <v>6.5</v>
       </c>
       <c r="C20" s="0">
-        <v>0.047290314777179543</v>
+        <v>0.040314734422869793</v>
       </c>
       <c r="D20" s="0">
         <v>1150</v>
       </c>
       <c r="E20" s="0">
-        <v>0.00016982842378515661</v>
+        <v>0.00079807842639739929</v>
       </c>
     </row>
     <row r="21">
@@ -434,13 +434,13 @@
         <v>9</v>
       </c>
       <c r="C21" s="0">
-        <v>0.049540794241976729</v>
+        <v>0.033416683407663121</v>
       </c>
       <c r="D21" s="0">
         <v>1150</v>
       </c>
       <c r="E21" s="0">
-        <v>0.0009277804228455393</v>
+        <v>9.6308772109163904e-05</v>
       </c>
     </row>
     <row r="22">
@@ -468,13 +468,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="0">
-        <v>1</v>
+        <v>0.9883881900115089</v>
       </c>
       <c r="D23" s="0">
         <v>950</v>
       </c>
       <c r="E23" s="0">
-        <v>0</v>
+        <v>0.01036956428938603</v>
       </c>
     </row>
     <row r="24">
@@ -485,13 +485,13 @@
         <v>5.2999999999999998</v>
       </c>
       <c r="C24" s="0">
-        <v>0.923075540212978</v>
+        <v>0.9192828015027773</v>
       </c>
       <c r="D24" s="0">
         <v>950</v>
       </c>
       <c r="E24" s="0">
-        <v>0.076924459787022059</v>
+        <v>0.0057964759150211705</v>
       </c>
     </row>
     <row r="25">
@@ -502,13 +502,13 @@
         <v>5.5</v>
       </c>
       <c r="C25" s="0">
-        <v>0.74409600916807417</v>
+        <v>0.73643385064199729</v>
       </c>
       <c r="D25" s="0">
         <v>950</v>
       </c>
       <c r="E25" s="0">
-        <v>0.014597635522198003</v>
+        <v>0.0046970358217444117</v>
       </c>
     </row>
     <row r="26">
@@ -519,13 +519,13 @@
         <v>5.7000000000000002</v>
       </c>
       <c r="C26" s="0">
-        <v>0.45489772588961042</v>
+        <v>0.37739183508580149</v>
       </c>
       <c r="D26" s="0">
         <v>950</v>
       </c>
       <c r="E26" s="0">
-        <v>0.031940312077500504</v>
+        <v>0.008776884220524769</v>
       </c>
     </row>
     <row r="27">
@@ -536,13 +536,13 @@
         <v>5.9000000000000004</v>
       </c>
       <c r="C27" s="0">
-        <v>0.096730337609800029</v>
+        <v>0.097150256163364035</v>
       </c>
       <c r="D27" s="0">
         <v>950</v>
       </c>
       <c r="E27" s="0">
-        <v>0.044415943713832104</v>
+        <v>0.0034662492314398883</v>
       </c>
     </row>
     <row r="28">
@@ -553,13 +553,13 @@
         <v>6.0999999999999996</v>
       </c>
       <c r="C28" s="0">
-        <v>0.033437673243720781</v>
+        <v>0.036414712392566474</v>
       </c>
       <c r="D28" s="0">
         <v>950</v>
       </c>
       <c r="E28" s="0">
-        <v>0.018830223221415886</v>
+        <v>0.001665247547018116</v>
       </c>
     </row>
     <row r="29">
@@ -570,13 +570,13 @@
         <v>6.2999999999999998</v>
       </c>
       <c r="C29" s="0">
-        <v>0.01838241277689058</v>
+        <v>0.019931002115770639</v>
       </c>
       <c r="D29" s="0">
         <v>950</v>
       </c>
       <c r="E29" s="0">
-        <v>0.0071952946343082792</v>
+        <v>0.0018045214943177778</v>
       </c>
     </row>
     <row r="30">
@@ -587,13 +587,13 @@
         <v>6.5</v>
       </c>
       <c r="C30" s="0">
-        <v>0.0065630246909971343</v>
+        <v>0.010400176190631848</v>
       </c>
       <c r="D30" s="0">
         <v>950</v>
       </c>
       <c r="E30" s="0">
-        <v>0.0011327281052030775</v>
+        <v>0.00070486585716830188</v>
       </c>
     </row>
     <row r="31">
@@ -604,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="C31" s="0">
-        <v>0.0042735387750409224</v>
+        <v>0.0039401355439621913</v>
       </c>
       <c r="D31" s="0">
         <v>950</v>
       </c>
       <c r="E31" s="0">
-        <v>4.118003514611825e-05</v>
+        <v>2.3485430497941355e-05</v>
       </c>
     </row>
     <row r="32">
@@ -638,13 +638,13 @@
         <v>5</v>
       </c>
       <c r="C33" s="0">
-        <v>1</v>
+        <v>0.98889131444440037</v>
       </c>
       <c r="D33" s="0">
         <v>1150</v>
       </c>
       <c r="E33" s="0">
-        <v>0</v>
+        <v>0.0083193544264543642</v>
       </c>
     </row>
     <row r="34">
@@ -655,13 +655,13 @@
         <v>5.2999999999999998</v>
       </c>
       <c r="C34" s="0">
-        <v>1.0398582964896428</v>
+        <v>0.97193282561944927</v>
       </c>
       <c r="D34" s="0">
         <v>1150</v>
       </c>
       <c r="E34" s="0">
-        <v>0.039858296489642897</v>
+        <v>0.0074409031872750562</v>
       </c>
     </row>
     <row r="35">
@@ -672,13 +672,13 @@
         <v>5.5</v>
       </c>
       <c r="C35" s="0">
-        <v>0.90805660149942713</v>
+        <v>0.91691218974920741</v>
       </c>
       <c r="D35" s="0">
         <v>1150</v>
       </c>
       <c r="E35" s="0">
-        <v>0.016928594409037545</v>
+        <v>0.0093843844425426527</v>
       </c>
     </row>
     <row r="36">
@@ -689,13 +689,13 @@
         <v>5.7000000000000002</v>
       </c>
       <c r="C36" s="0">
-        <v>0.71601469966912523</v>
+        <v>0.70093436157427258</v>
       </c>
       <c r="D36" s="0">
         <v>1150</v>
       </c>
       <c r="E36" s="0">
-        <v>0.061020308831071006</v>
+        <v>0.0088568834825232187</v>
       </c>
     </row>
     <row r="37">
@@ -706,13 +706,13 @@
         <v>5.9000000000000004</v>
       </c>
       <c r="C37" s="0">
-        <v>0.29240826058376646</v>
+        <v>0.28067731094679577</v>
       </c>
       <c r="D37" s="0">
         <v>1150</v>
       </c>
       <c r="E37" s="0">
-        <v>0.010581718157763291</v>
+        <v>0.0043489224300677391</v>
       </c>
     </row>
     <row r="38">
@@ -723,13 +723,13 @@
         <v>6.0999999999999996</v>
       </c>
       <c r="C38" s="0">
-        <v>0.10035374925904539</v>
+        <v>0.10226607572666709</v>
       </c>
       <c r="D38" s="0">
         <v>1150</v>
       </c>
       <c r="E38" s="0">
-        <v>0.0023995664092799768</v>
+        <v>0.002933472142751874</v>
       </c>
     </row>
     <row r="39">
@@ -740,13 +740,13 @@
         <v>6.2999999999999998</v>
       </c>
       <c r="C39" s="0">
-        <v>0.065536935810997593</v>
+        <v>0.056951670951469982</v>
       </c>
       <c r="D39" s="0">
         <v>1150</v>
       </c>
       <c r="E39" s="0">
-        <v>0.026820416711838876</v>
+        <v>0.00230631088137025</v>
       </c>
     </row>
     <row r="40">
@@ -757,13 +757,13 @@
         <v>6.5</v>
       </c>
       <c r="C40" s="0">
-        <v>0.040185691182929237</v>
+        <v>0.043493737941688856</v>
       </c>
       <c r="D40" s="0">
         <v>1150</v>
       </c>
       <c r="E40" s="0">
-        <v>0.0046063138866717949</v>
+        <v>0.0019692980788288358</v>
       </c>
     </row>
     <row r="41">
@@ -774,13 +774,13 @@
         <v>9</v>
       </c>
       <c r="C41" s="0">
-        <v>0.027555924158207089</v>
+        <v>0.028467923286900815</v>
       </c>
       <c r="D41" s="0">
         <v>1150</v>
       </c>
       <c r="E41" s="0">
-        <v>0.0004307575857305946</v>
+        <v>0.00019028927172290311</v>
       </c>
     </row>
   </sheetData>

--- a/MATLAB_code/mean_summary_pCa.xlsx
+++ b/MATLAB_code/mean_summary_pCa.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="60" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="270" uniqueCount="5">
   <si>
     <t>curve</t>
   </si>
@@ -128,13 +128,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>0.96353728821906848</v>
+        <v>1</v>
       </c>
       <c r="D3" s="0">
         <v>950</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0081950779186216131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -145,13 +145,13 @@
         <v>5.2999999999999998</v>
       </c>
       <c r="C4" s="0">
-        <v>0.8610080921338723</v>
+        <v>0.92777620480442979</v>
       </c>
       <c r="D4" s="0">
         <v>950</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0074784575971211745</v>
+        <v>0.072223795195570262</v>
       </c>
     </row>
     <row r="5">
@@ -162,13 +162,13 @@
         <v>5.5</v>
       </c>
       <c r="C5" s="0">
-        <v>0.58348742232183082</v>
+        <v>0.73156848902157257</v>
       </c>
       <c r="D5" s="0">
         <v>950</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0045628035210848062</v>
+        <v>0.00075404922037147759</v>
       </c>
     </row>
     <row r="6">
@@ -179,13 +179,13 @@
         <v>5.7000000000000002</v>
       </c>
       <c r="C6" s="0">
-        <v>0.17525298115276425</v>
+        <v>0.44860486960559709</v>
       </c>
       <c r="D6" s="0">
         <v>950</v>
       </c>
       <c r="E6" s="0">
-        <v>0.004413970264153356</v>
+        <v>0.068412932907872953</v>
       </c>
     </row>
     <row r="7">
@@ -196,13 +196,13 @@
         <v>5.9000000000000004</v>
       </c>
       <c r="C7" s="0">
-        <v>0.0499540493904361</v>
+        <v>0.15293852533765273</v>
       </c>
       <c r="D7" s="0">
         <v>950</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0021450357722000339</v>
+        <v>0.028139083648352728</v>
       </c>
     </row>
     <row r="8">
@@ -213,13 +213,13 @@
         <v>6.0999999999999996</v>
       </c>
       <c r="C8" s="0">
-        <v>0.024819042448732634</v>
+        <v>0.075637625912831158</v>
       </c>
       <c r="D8" s="0">
         <v>950</v>
       </c>
       <c r="E8" s="0">
-        <v>0.0013808150329597461</v>
+        <v>0.0283569391067643</v>
       </c>
     </row>
     <row r="9">
@@ -230,13 +230,13 @@
         <v>6.2999999999999998</v>
       </c>
       <c r="C9" s="0">
-        <v>0.013733969928802612</v>
+        <v>0.031775865014838665</v>
       </c>
       <c r="D9" s="0">
         <v>950</v>
       </c>
       <c r="E9" s="0">
-        <v>0.0007498657037436848</v>
+        <v>0.0090074153674495686</v>
       </c>
     </row>
     <row r="10">
@@ -247,13 +247,13 @@
         <v>6.5</v>
       </c>
       <c r="C10" s="0">
-        <v>0.012466309406428445</v>
+        <v>0.013374580219945247</v>
       </c>
       <c r="D10" s="0">
         <v>950</v>
       </c>
       <c r="E10" s="0">
-        <v>0.00049622970778192155</v>
+        <v>0.0049454214429347004</v>
       </c>
     </row>
     <row r="11">
@@ -264,13 +264,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="0">
-        <v>0.0052022022284200862</v>
+        <v>0.0040008204008844727</v>
       </c>
       <c r="D11" s="0">
         <v>950</v>
       </c>
       <c r="E11" s="0">
-        <v>1.8696189543931157e-05</v>
+        <v>5.132577869039652e-05</v>
       </c>
     </row>
     <row r="12">
@@ -298,13 +298,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="0">
-        <v>0.97574444962245332</v>
+        <v>1</v>
       </c>
       <c r="D13" s="0">
         <v>1150</v>
       </c>
       <c r="E13" s="0">
-        <v>0.0062174751204615167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -315,13 +315,13 @@
         <v>5.2999999999999998</v>
       </c>
       <c r="C14" s="0">
-        <v>0.91322249464222849</v>
+        <v>1.0199387227673973</v>
       </c>
       <c r="D14" s="0">
         <v>1150</v>
       </c>
       <c r="E14" s="0">
-        <v>0.0053353941767176919</v>
+        <v>0.019938722767397277</v>
       </c>
     </row>
     <row r="15">
@@ -332,13 +332,13 @@
         <v>5.5</v>
       </c>
       <c r="C15" s="0">
-        <v>0.737122075645949</v>
+        <v>0.91365923851480035</v>
       </c>
       <c r="D15" s="0">
         <v>1150</v>
       </c>
       <c r="E15" s="0">
-        <v>0.0083449927572081268</v>
+        <v>0.015111640714474073</v>
       </c>
     </row>
     <row r="16">
@@ -349,13 +349,13 @@
         <v>5.7000000000000002</v>
       </c>
       <c r="C16" s="0">
-        <v>0.40418165783828963</v>
+        <v>0.65293828229087914</v>
       </c>
       <c r="D16" s="0">
         <v>1150</v>
       </c>
       <c r="E16" s="0">
-        <v>0.0086710624661628481</v>
+        <v>0.059831743802541915</v>
       </c>
     </row>
     <row r="17">
@@ -366,13 +366,13 @@
         <v>5.9000000000000004</v>
       </c>
       <c r="C17" s="0">
-        <v>0.12420783226517143</v>
+        <v>0.36654835753681869</v>
       </c>
       <c r="D17" s="0">
         <v>1150</v>
       </c>
       <c r="E17" s="0">
-        <v>0.0048295192568498322</v>
+        <v>0.035475837575819756</v>
       </c>
     </row>
     <row r="18">
@@ -383,13 +383,13 @@
         <v>6.0999999999999996</v>
       </c>
       <c r="C18" s="0">
-        <v>0.064720079568812525</v>
+        <v>0.14293494630484724</v>
       </c>
       <c r="D18" s="0">
         <v>1150</v>
       </c>
       <c r="E18" s="0">
-        <v>0.001481239073597516</v>
+        <v>0.026247068951715625</v>
       </c>
     </row>
     <row r="19">
@@ -400,13 +400,13 @@
         <v>6.2999999999999998</v>
       </c>
       <c r="C19" s="0">
-        <v>0.045489307080122068</v>
+        <v>0.071827198854823721</v>
       </c>
       <c r="D19" s="0">
         <v>1150</v>
       </c>
       <c r="E19" s="0">
-        <v>0.0013268531588795328</v>
+        <v>0.00037473645294306546</v>
       </c>
     </row>
     <row r="20">
@@ -417,13 +417,13 @@
         <v>6.5</v>
       </c>
       <c r="C20" s="0">
-        <v>0.040314734422869793</v>
+        <v>0.033856757712352505</v>
       </c>
       <c r="D20" s="0">
         <v>1150</v>
       </c>
       <c r="E20" s="0">
-        <v>0.00079807842639739929</v>
+        <v>0.0028455821051713518</v>
       </c>
     </row>
     <row r="21">
@@ -434,13 +434,13 @@
         <v>9</v>
       </c>
       <c r="C21" s="0">
-        <v>0.033416683407663121</v>
+        <v>0.028737813790577531</v>
       </c>
       <c r="D21" s="0">
         <v>1150</v>
       </c>
       <c r="E21" s="0">
-        <v>9.6308772109163904e-05</v>
+        <v>0.00092185323473713266</v>
       </c>
     </row>
     <row r="22">
@@ -468,13 +468,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="0">
-        <v>0.9883881900115089</v>
+        <v>1</v>
       </c>
       <c r="D23" s="0">
         <v>950</v>
       </c>
       <c r="E23" s="0">
-        <v>0.01036956428938603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -485,13 +485,13 @@
         <v>5.2999999999999998</v>
       </c>
       <c r="C24" s="0">
-        <v>0.9192828015027773</v>
+        <v>0.99721976734366358</v>
       </c>
       <c r="D24" s="0">
         <v>950</v>
       </c>
       <c r="E24" s="0">
-        <v>0.0057964759150211705</v>
+        <v>0.0027802326563364783</v>
       </c>
     </row>
     <row r="25">
@@ -502,13 +502,13 @@
         <v>5.5</v>
       </c>
       <c r="C25" s="0">
-        <v>0.73643385064199729</v>
+        <v>0.6874565028611046</v>
       </c>
       <c r="D25" s="0">
         <v>950</v>
       </c>
       <c r="E25" s="0">
-        <v>0.0046970358217444117</v>
+        <v>0.065046322737951245</v>
       </c>
     </row>
     <row r="26">
@@ -519,13 +519,13 @@
         <v>5.7000000000000002</v>
       </c>
       <c r="C26" s="0">
-        <v>0.37739183508580149</v>
+        <v>0.26608835331055697</v>
       </c>
       <c r="D26" s="0">
         <v>950</v>
       </c>
       <c r="E26" s="0">
-        <v>0.008776884220524769</v>
+        <v>0.021154206231468062</v>
       </c>
     </row>
     <row r="27">
@@ -536,13 +536,13 @@
         <v>5.9000000000000004</v>
       </c>
       <c r="C27" s="0">
-        <v>0.097150256163364035</v>
+        <v>0.089213220362641635</v>
       </c>
       <c r="D27" s="0">
         <v>950</v>
       </c>
       <c r="E27" s="0">
-        <v>0.0034662492314398883</v>
+        <v>0.027376813995345396</v>
       </c>
     </row>
     <row r="28">
@@ -553,13 +553,13 @@
         <v>6.0999999999999996</v>
       </c>
       <c r="C28" s="0">
-        <v>0.036414712392566474</v>
+        <v>0.025202537218857138</v>
       </c>
       <c r="D28" s="0">
         <v>950</v>
       </c>
       <c r="E28" s="0">
-        <v>0.001665247547018116</v>
+        <v>0.011295308279021586</v>
       </c>
     </row>
     <row r="29">
@@ -570,13 +570,13 @@
         <v>6.2999999999999998</v>
       </c>
       <c r="C29" s="0">
-        <v>0.019931002115770639</v>
+        <v>0.011182587480671271</v>
       </c>
       <c r="D29" s="0">
         <v>950</v>
       </c>
       <c r="E29" s="0">
-        <v>0.0018045214943177778</v>
+        <v>0.0032609819874478874</v>
       </c>
     </row>
     <row r="30">
@@ -587,13 +587,13 @@
         <v>6.5</v>
       </c>
       <c r="C30" s="0">
-        <v>0.010400176190631848</v>
+        <v>0.016272482841773687</v>
       </c>
       <c r="D30" s="0">
         <v>950</v>
       </c>
       <c r="E30" s="0">
-        <v>0.00070486585716830188</v>
+        <v>0.008154636712533643</v>
       </c>
     </row>
     <row r="31">
@@ -604,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="C31" s="0">
-        <v>0.0039401355439621913</v>
+        <v>0.0043045535164640131</v>
       </c>
       <c r="D31" s="0">
         <v>950</v>
       </c>
       <c r="E31" s="0">
-        <v>2.3485430497941355e-05</v>
+        <v>0.00010259988803462726</v>
       </c>
     </row>
     <row r="32">
@@ -638,13 +638,13 @@
         <v>5</v>
       </c>
       <c r="C33" s="0">
-        <v>0.98889131444440037</v>
+        <v>1</v>
       </c>
       <c r="D33" s="0">
         <v>1150</v>
       </c>
       <c r="E33" s="0">
-        <v>0.0083193544264543642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -655,13 +655,13 @@
         <v>5.2999999999999998</v>
       </c>
       <c r="C34" s="0">
-        <v>0.97193282561944927</v>
+        <v>0.95869972783601165</v>
       </c>
       <c r="D34" s="0">
         <v>1150</v>
       </c>
       <c r="E34" s="0">
-        <v>0.0074409031872750562</v>
+        <v>0.041300272163988405</v>
       </c>
     </row>
     <row r="35">
@@ -672,13 +672,13 @@
         <v>5.5</v>
       </c>
       <c r="C35" s="0">
-        <v>0.91691218974920741</v>
+        <v>0.9078588854278602</v>
       </c>
       <c r="D35" s="0">
         <v>1150</v>
       </c>
       <c r="E35" s="0">
-        <v>0.0093843844425426527</v>
+        <v>0.048662646946527943</v>
       </c>
     </row>
     <row r="36">
@@ -689,13 +689,13 @@
         <v>5.7000000000000002</v>
       </c>
       <c r="C36" s="0">
-        <v>0.70093436157427258</v>
+        <v>0.56957005607573574</v>
       </c>
       <c r="D36" s="0">
         <v>1150</v>
       </c>
       <c r="E36" s="0">
-        <v>0.0088568834825232187</v>
+        <v>0.0063594554874340506</v>
       </c>
     </row>
     <row r="37">
@@ -706,13 +706,13 @@
         <v>5.9000000000000004</v>
       </c>
       <c r="C37" s="0">
-        <v>0.28067731094679577</v>
+        <v>0.23720313823263667</v>
       </c>
       <c r="D37" s="0">
         <v>1150</v>
       </c>
       <c r="E37" s="0">
-        <v>0.0043489224300677391</v>
+        <v>0.012238919802421241</v>
       </c>
     </row>
     <row r="38">
@@ -723,13 +723,13 @@
         <v>6.0999999999999996</v>
       </c>
       <c r="C38" s="0">
-        <v>0.10226607572666709</v>
+        <v>0.073704579902514791</v>
       </c>
       <c r="D38" s="0">
         <v>1150</v>
       </c>
       <c r="E38" s="0">
-        <v>0.002933472142751874</v>
+        <v>0.01480073235646898</v>
       </c>
     </row>
     <row r="39">
@@ -740,13 +740,13 @@
         <v>6.2999999999999998</v>
       </c>
       <c r="C39" s="0">
-        <v>0.056951670951469982</v>
+        <v>0.06629753361429544</v>
       </c>
       <c r="D39" s="0">
         <v>1150</v>
       </c>
       <c r="E39" s="0">
-        <v>0.00230631088137025</v>
+        <v>0.0048097104061536541</v>
       </c>
     </row>
     <row r="40">
@@ -757,13 +757,13 @@
         <v>6.5</v>
       </c>
       <c r="C40" s="0">
-        <v>0.043493737941688856</v>
+        <v>0.050795534750370137</v>
       </c>
       <c r="D40" s="0">
         <v>1150</v>
       </c>
       <c r="E40" s="0">
-        <v>0.0019692980788288358</v>
+        <v>0.0096681249227956439</v>
       </c>
     </row>
     <row r="41">
@@ -774,13 +774,13 @@
         <v>9</v>
       </c>
       <c r="C41" s="0">
-        <v>0.028467923286900815</v>
+        <v>0.02864383112886227</v>
       </c>
       <c r="D41" s="0">
         <v>1150</v>
       </c>
       <c r="E41" s="0">
-        <v>0.00019028927172290311</v>
+        <v>0.00066393072138239476</v>
       </c>
     </row>
   </sheetData>

--- a/MATLAB_code/mean_summary_pCa.xlsx
+++ b/MATLAB_code/mean_summary_pCa.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="25" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="65" uniqueCount="5">
   <si>
     <t>curve</t>
   </si>
@@ -125,16 +125,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>0.99274613649477972</v>
+        <v>1</v>
       </c>
       <c r="D3" s="0">
         <v>950</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0045294644076470077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -145,13 +145,13 @@
         <v>5.2999999999999998</v>
       </c>
       <c r="C4" s="0">
-        <v>0.94040632438556826</v>
+        <v>0.89353716795025895</v>
       </c>
       <c r="D4" s="0">
         <v>950</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0030371389111910076</v>
+        <v>0.0028614287140711001</v>
       </c>
     </row>
     <row r="5">
@@ -162,13 +162,13 @@
         <v>5.5</v>
       </c>
       <c r="C5" s="0">
-        <v>0.52655784512751502</v>
+        <v>0.70675082643534726</v>
       </c>
       <c r="D5" s="0">
         <v>950</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0027107653130273167</v>
+        <v>0.0075309505956080028</v>
       </c>
     </row>
     <row r="6">
@@ -176,16 +176,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>5.5999999999999996</v>
+        <v>5.7000000000000002</v>
       </c>
       <c r="C6" s="0">
-        <v>0.22130464616592013</v>
+        <v>0.32433811612557156</v>
       </c>
       <c r="D6" s="0">
         <v>950</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0018185041943788918</v>
+        <v>0.0096716263221716583</v>
       </c>
     </row>
     <row r="7">
@@ -193,16 +193,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>5.7000000000000002</v>
+        <v>5.9000000000000004</v>
       </c>
       <c r="C7" s="0">
-        <v>0.10033350556029666</v>
+        <v>0.081916179245107162</v>
       </c>
       <c r="D7" s="0">
         <v>950</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0017177805777923176</v>
+        <v>0.0063102176558963337</v>
       </c>
     </row>
     <row r="8">
@@ -210,16 +210,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>5.7999999999999998</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="C8" s="0">
-        <v>0.050973241370808567</v>
+        <v>0.031915909036430323</v>
       </c>
       <c r="D8" s="0">
         <v>950</v>
       </c>
       <c r="E8" s="0">
-        <v>0.0014828880652295214</v>
+        <v>0.0016242325677361532</v>
       </c>
     </row>
     <row r="9">
@@ -227,16 +227,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>5.9000000000000004</v>
+        <v>6.2999999999999998</v>
       </c>
       <c r="C9" s="0">
-        <v>0.032595884170674508</v>
+        <v>0.015963577139342787</v>
       </c>
       <c r="D9" s="0">
         <v>950</v>
       </c>
       <c r="E9" s="0">
-        <v>0.00087441215099257898</v>
+        <v>0.00057333833345623458</v>
       </c>
     </row>
     <row r="10">
@@ -244,16 +244,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C10" s="0">
-        <v>0.022092316339891685</v>
+        <v>0.010830264525961471</v>
       </c>
       <c r="D10" s="0">
         <v>950</v>
       </c>
       <c r="E10" s="0">
-        <v>0.00054239227888460448</v>
+        <v>0.0011125508661109214</v>
       </c>
     </row>
     <row r="11">
@@ -261,101 +261,101 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>6.0999999999999996</v>
+        <v>9</v>
       </c>
       <c r="C11" s="0">
-        <v>0.018584541627675442</v>
+        <v>0.0041179992793984373</v>
       </c>
       <c r="D11" s="0">
         <v>950</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0005283884030184028</v>
+        <v>3.2734364102264461e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="0">
-        <v>6.2000000000000002</v>
+        <v>4.5</v>
       </c>
       <c r="C12" s="0">
-        <v>0.015496176611929402</v>
+        <v>1</v>
       </c>
       <c r="D12" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E12" s="0">
-        <v>0.00052698381034058594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="0">
-        <v>6.2999999999999998</v>
+        <v>5</v>
       </c>
       <c r="C13" s="0">
-        <v>0.013577854861867671</v>
+        <v>1</v>
       </c>
       <c r="D13" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E13" s="0">
-        <v>0.00039835928831370287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="0">
-        <v>6.4000000000000004</v>
+        <v>5.2999999999999998</v>
       </c>
       <c r="C14" s="0">
-        <v>0.011975212340507593</v>
+        <v>0.97511298865443441</v>
       </c>
       <c r="D14" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E14" s="0">
-        <v>0.00019428615324235127</v>
+        <v>0.005170749080108109</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="0">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C15" s="0">
-        <v>0.011473923520733795</v>
+        <v>0.91095881016485569</v>
       </c>
       <c r="D15" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E15" s="0">
-        <v>0.00015123613604857422</v>
+        <v>0.0028060947749004497</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="0">
-        <v>9</v>
+        <v>5.7000000000000002</v>
       </c>
       <c r="C16" s="0">
-        <v>0.0093210949423333765</v>
+        <v>0.6203289747232249</v>
       </c>
       <c r="D16" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E16" s="0">
-        <v>2.5111186638654009e-05</v>
+        <v>0.0043970657043378401</v>
       </c>
     </row>
     <row r="17">
@@ -363,16 +363,16 @@
         <v>2</v>
       </c>
       <c r="B17" s="0">
-        <v>4.5</v>
+        <v>5.9000000000000004</v>
       </c>
       <c r="C17" s="0">
-        <v>1</v>
+        <v>0.23536389157684004</v>
       </c>
       <c r="D17" s="0">
         <v>1150</v>
       </c>
       <c r="E17" s="0">
-        <v>0</v>
+        <v>0.0035940836240893003</v>
       </c>
     </row>
     <row r="18">
@@ -380,16 +380,16 @@
         <v>2</v>
       </c>
       <c r="B18" s="0">
-        <v>5.0999999999999996</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="C18" s="0">
-        <v>0.9832193056241566</v>
+        <v>0.082329744361557294</v>
       </c>
       <c r="D18" s="0">
         <v>1150</v>
       </c>
       <c r="E18" s="0">
-        <v>0.0036257246292372893</v>
+        <v>0.0033775482495979683</v>
       </c>
     </row>
     <row r="19">
@@ -397,16 +397,16 @@
         <v>2</v>
       </c>
       <c r="B19" s="0">
-        <v>5.2999999999999998</v>
+        <v>6.2999999999999998</v>
       </c>
       <c r="C19" s="0">
-        <v>0.93883315385397503</v>
+        <v>0.05116943404053189</v>
       </c>
       <c r="D19" s="0">
         <v>1150</v>
       </c>
       <c r="E19" s="0">
-        <v>0.0037049675804730294</v>
+        <v>0.0020188190432547655</v>
       </c>
     </row>
     <row r="20">
@@ -414,16 +414,16 @@
         <v>2</v>
       </c>
       <c r="B20" s="0">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C20" s="0">
-        <v>0.7523779838161837</v>
+        <v>0.039882399729462198</v>
       </c>
       <c r="D20" s="0">
         <v>1150</v>
       </c>
       <c r="E20" s="0">
-        <v>0.0032743071328261773</v>
+        <v>0.0010487406735801199</v>
       </c>
     </row>
     <row r="21">
@@ -431,191 +431,191 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>5.5999999999999996</v>
+        <v>9</v>
       </c>
       <c r="C21" s="0">
-        <v>0.5153848493701465</v>
+        <v>0.029385861271170939</v>
       </c>
       <c r="D21" s="0">
         <v>1150</v>
       </c>
       <c r="E21" s="0">
-        <v>0.0050906382176451586</v>
+        <v>0.00018651964200064867</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" s="0">
-        <v>5.7000000000000002</v>
+        <v>4.5</v>
       </c>
       <c r="C22" s="0">
-        <v>0.25739251865726614</v>
+        <v>1</v>
       </c>
       <c r="D22" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E22" s="0">
-        <v>0.0038883325744398962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" s="0">
-        <v>5.7999999999999998</v>
+        <v>5</v>
       </c>
       <c r="C23" s="0">
-        <v>0.14183289124574308</v>
+        <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E23" s="0">
-        <v>0.0020101998212119559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" s="0">
-        <v>5.9000000000000004</v>
+        <v>5.2999999999999998</v>
       </c>
       <c r="C24" s="0">
-        <v>0.097999724219888507</v>
+        <v>0.93829168974925869</v>
       </c>
       <c r="D24" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E24" s="0">
-        <v>0.0011132637515157819</v>
+        <v>0.011029847230149784</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25" s="0">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C25" s="0">
-        <v>0.081715966883250002</v>
+        <v>0.79351833313629905</v>
       </c>
       <c r="D25" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E25" s="0">
-        <v>0.00079925278989272715</v>
+        <v>0.0074819937272733389</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" s="0">
-        <v>6.0999999999999996</v>
+        <v>5.7000000000000002</v>
       </c>
       <c r="C26" s="0">
-        <v>0.074788376609022988</v>
+        <v>0.44855397673325592</v>
       </c>
       <c r="D26" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E26" s="0">
-        <v>0.00082001253867287969</v>
+        <v>0.0080225592093737391</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27" s="0">
-        <v>6.2000000000000002</v>
+        <v>5.9000000000000004</v>
       </c>
       <c r="C27" s="0">
-        <v>0.069036419939356053</v>
+        <v>0.13886488192603302</v>
       </c>
       <c r="D27" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E27" s="0">
-        <v>0.00057653995896033848</v>
+        <v>0.0036787941381503778</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" s="0">
-        <v>6.2999999999999998</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="C28" s="0">
-        <v>0.066633395410941529</v>
+        <v>0.042998206501979955</v>
       </c>
       <c r="D28" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E28" s="0">
-        <v>0.00052335135292979913</v>
+        <v>0.0014881162984726837</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" s="0">
-        <v>6.4000000000000004</v>
+        <v>6.2999999999999998</v>
       </c>
       <c r="C29" s="0">
-        <v>0.064612906173058718</v>
+        <v>0.019740310823740993</v>
       </c>
       <c r="D29" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E29" s="0">
-        <v>0.00044251260073860149</v>
+        <v>0.0011616465837670298</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" s="0">
         <v>6.5</v>
       </c>
       <c r="C30" s="0">
-        <v>0.063554482879972368</v>
+        <v>0.011302472777411029</v>
       </c>
       <c r="D30" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E30" s="0">
-        <v>0.00029933315285252143</v>
+        <v>0.00083612799298153162</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" s="0">
         <v>9</v>
       </c>
       <c r="C31" s="0">
-        <v>0.061004774068723823</v>
+        <v>0.0037782659735671464</v>
       </c>
       <c r="D31" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E31" s="0">
-        <v>0.00020067756459344555</v>
+        <v>8.7644302533928342e-06</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32" s="0">
         <v>4.5</v>
@@ -624,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E32" s="0">
         <v>0</v>
@@ -632,155 +632,155 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33" s="0">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="C33" s="0">
-        <v>0.99208763866048211</v>
+        <v>1</v>
       </c>
       <c r="D33" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E33" s="0">
-        <v>0.002803575891695199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B34" s="0">
         <v>5.2999999999999998</v>
       </c>
       <c r="C34" s="0">
-        <v>0.97048796996686959</v>
+        <v>0.97105917931125418</v>
       </c>
       <c r="D34" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E34" s="0">
-        <v>0.0032898468912888855</v>
+        <v>0.0073867822832148003</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" s="0">
         <v>5.5</v>
       </c>
       <c r="C35" s="0">
-        <v>0.90564608529039925</v>
+        <v>0.93135677575537112</v>
       </c>
       <c r="D35" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E35" s="0">
-        <v>0.0029242859077205016</v>
+        <v>0.004713799869301219</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B36" s="0">
-        <v>5.5999999999999996</v>
+        <v>5.7000000000000002</v>
       </c>
       <c r="C36" s="0">
-        <v>0.85299792246089845</v>
+        <v>0.76928924318386671</v>
       </c>
       <c r="D36" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E36" s="0">
-        <v>0.0026688751205947792</v>
+        <v>0.0070495190098823369</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37" s="0">
-        <v>5.7000000000000002</v>
+        <v>5.9000000000000004</v>
       </c>
       <c r="C37" s="0">
-        <v>0.76915435983764746</v>
+        <v>0.38357324273028059</v>
       </c>
       <c r="D37" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E37" s="0">
-        <v>0.0041929643478656924</v>
+        <v>0.003676165769234325</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B38" s="0">
-        <v>5.7999999999999998</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="C38" s="0">
-        <v>0.61900806549947829</v>
+        <v>0.13150767512790118</v>
       </c>
       <c r="D38" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E38" s="0">
-        <v>0.0030575111575363374</v>
+        <v>0.0043199782763849379</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" s="0">
-        <v>5.9000000000000004</v>
+        <v>6.2999999999999998</v>
       </c>
       <c r="C39" s="0">
-        <v>0.20675399305976588</v>
+        <v>0.067170774820347015</v>
       </c>
       <c r="D39" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E39" s="0">
-        <v>0.006902741055529499</v>
+        <v>0.0020348580782422951</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" s="0">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C40" s="0">
-        <v>0.034476586925407379</v>
+        <v>0.047180223962548874</v>
       </c>
       <c r="D40" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E40" s="0">
-        <v>0.001968836220823055</v>
+        <v>0.0009523302162794022</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" s="0">
-        <v>6.0999999999999996</v>
+        <v>9</v>
       </c>
       <c r="C41" s="0">
-        <v>0.016468035946070131</v>
+        <v>0.027914261351758146</v>
       </c>
       <c r="D41" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E41" s="0">
-        <v>0.00096648164324934186</v>
+        <v>0.00017502600367587604</v>
       </c>
     </row>
     <row r="42">

--- a/MATLAB_code/mean_summary_pCa.xlsx
+++ b/MATLAB_code/mean_summary_pCa.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="65" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="260" uniqueCount="5">
   <si>
     <t>curve</t>
   </si>
@@ -128,13 +128,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>1</v>
+        <v>0.9848335210026512</v>
       </c>
       <c r="D3" s="0">
         <v>950</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.0048107431485077427</v>
       </c>
     </row>
     <row r="4">
@@ -145,13 +145,13 @@
         <v>5.2999999999999998</v>
       </c>
       <c r="C4" s="0">
-        <v>0.89353716795025895</v>
+        <v>0.91067996707135923</v>
       </c>
       <c r="D4" s="0">
         <v>950</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0028614287140711001</v>
+        <v>0.0041688685307473263</v>
       </c>
     </row>
     <row r="5">
@@ -162,13 +162,13 @@
         <v>5.5</v>
       </c>
       <c r="C5" s="0">
-        <v>0.70675082643534726</v>
+        <v>0.70129573238443843</v>
       </c>
       <c r="D5" s="0">
         <v>950</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0075309505956080028</v>
+        <v>0.0039448261754047578</v>
       </c>
     </row>
     <row r="6">
@@ -179,13 +179,13 @@
         <v>5.7000000000000002</v>
       </c>
       <c r="C6" s="0">
-        <v>0.32433811612557156</v>
+        <v>0.32667189650613471</v>
       </c>
       <c r="D6" s="0">
         <v>950</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0096716263221716583</v>
+        <v>0.0046410086730328598</v>
       </c>
     </row>
     <row r="7">
@@ -196,13 +196,13 @@
         <v>5.9000000000000004</v>
       </c>
       <c r="C7" s="0">
-        <v>0.081916179245107162</v>
+        <v>0.070267049262747225</v>
       </c>
       <c r="D7" s="0">
         <v>950</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0063102176558963337</v>
+        <v>0.0018295882804855183</v>
       </c>
     </row>
     <row r="8">
@@ -213,13 +213,13 @@
         <v>6.0999999999999996</v>
       </c>
       <c r="C8" s="0">
-        <v>0.031915909036430323</v>
+        <v>0.028218515026008584</v>
       </c>
       <c r="D8" s="0">
         <v>950</v>
       </c>
       <c r="E8" s="0">
-        <v>0.0016242325677361532</v>
+        <v>0.00084755384829973148</v>
       </c>
     </row>
     <row r="9">
@@ -230,13 +230,13 @@
         <v>6.2999999999999998</v>
       </c>
       <c r="C9" s="0">
-        <v>0.015963577139342787</v>
+        <v>0.014909240411142161</v>
       </c>
       <c r="D9" s="0">
         <v>950</v>
       </c>
       <c r="E9" s="0">
-        <v>0.00057333833345623458</v>
+        <v>0.0008770140518045103</v>
       </c>
     </row>
     <row r="10">
@@ -247,13 +247,13 @@
         <v>6.5</v>
       </c>
       <c r="C10" s="0">
-        <v>0.010830264525961471</v>
+        <v>0.010507588603787279</v>
       </c>
       <c r="D10" s="0">
         <v>950</v>
       </c>
       <c r="E10" s="0">
-        <v>0.0011125508661109214</v>
+        <v>0.00036145892040879914</v>
       </c>
     </row>
     <row r="11">
@@ -264,13 +264,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="0">
-        <v>0.0041179992793984373</v>
+        <v>0.004104155889781756</v>
       </c>
       <c r="D11" s="0">
         <v>950</v>
       </c>
       <c r="E11" s="0">
-        <v>3.2734364102264461e-05</v>
+        <v>1.9921308043105836e-05</v>
       </c>
     </row>
     <row r="12">
@@ -298,13 +298,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="0">
-        <v>1</v>
+        <v>0.99005445984999518</v>
       </c>
       <c r="D13" s="0">
         <v>1150</v>
       </c>
       <c r="E13" s="0">
-        <v>0</v>
+        <v>0.0023354639461308389</v>
       </c>
     </row>
     <row r="14">
@@ -315,13 +315,13 @@
         <v>5.2999999999999998</v>
       </c>
       <c r="C14" s="0">
-        <v>0.97511298865443441</v>
+        <v>0.96929638695690312</v>
       </c>
       <c r="D14" s="0">
         <v>1150</v>
       </c>
       <c r="E14" s="0">
-        <v>0.005170749080108109</v>
+        <v>0.0026642430985699388</v>
       </c>
     </row>
     <row r="15">
@@ -332,13 +332,13 @@
         <v>5.5</v>
       </c>
       <c r="C15" s="0">
-        <v>0.91095881016485569</v>
+        <v>0.90617366599390847</v>
       </c>
       <c r="D15" s="0">
         <v>1150</v>
       </c>
       <c r="E15" s="0">
-        <v>0.0028060947749004497</v>
+        <v>0.0043796092711529686</v>
       </c>
     </row>
     <row r="16">
@@ -349,13 +349,13 @@
         <v>5.7000000000000002</v>
       </c>
       <c r="C16" s="0">
-        <v>0.6203289747232249</v>
+        <v>0.6260533680609407</v>
       </c>
       <c r="D16" s="0">
         <v>1150</v>
       </c>
       <c r="E16" s="0">
-        <v>0.0043970657043378401</v>
+        <v>0.0038258200353937411</v>
       </c>
     </row>
     <row r="17">
@@ -366,13 +366,13 @@
         <v>5.9000000000000004</v>
       </c>
       <c r="C17" s="0">
-        <v>0.23536389157684004</v>
+        <v>0.22759465752734553</v>
       </c>
       <c r="D17" s="0">
         <v>1150</v>
       </c>
       <c r="E17" s="0">
-        <v>0.0035940836240893003</v>
+        <v>0.0021863728567273178</v>
       </c>
     </row>
     <row r="18">
@@ -383,13 +383,13 @@
         <v>6.0999999999999996</v>
       </c>
       <c r="C18" s="0">
-        <v>0.082329744361557294</v>
+        <v>0.082252415403091639</v>
       </c>
       <c r="D18" s="0">
         <v>1150</v>
       </c>
       <c r="E18" s="0">
-        <v>0.0033775482495979683</v>
+        <v>0.0011927119550708145</v>
       </c>
     </row>
     <row r="19">
@@ -400,13 +400,13 @@
         <v>6.2999999999999998</v>
       </c>
       <c r="C19" s="0">
-        <v>0.05116943404053189</v>
+        <v>0.050601609324554361</v>
       </c>
       <c r="D19" s="0">
         <v>1150</v>
       </c>
       <c r="E19" s="0">
-        <v>0.0020188190432547655</v>
+        <v>0.00087020907242312364</v>
       </c>
     </row>
     <row r="20">
@@ -417,13 +417,13 @@
         <v>6.5</v>
       </c>
       <c r="C20" s="0">
-        <v>0.039882399729462198</v>
+        <v>0.040916391480982459</v>
       </c>
       <c r="D20" s="0">
         <v>1150</v>
       </c>
       <c r="E20" s="0">
-        <v>0.0010487406735801199</v>
+        <v>0.00046847143725777836</v>
       </c>
     </row>
     <row r="21">
@@ -434,13 +434,13 @@
         <v>9</v>
       </c>
       <c r="C21" s="0">
-        <v>0.029385861271170939</v>
+        <v>0.028973168736875686</v>
       </c>
       <c r="D21" s="0">
         <v>1150</v>
       </c>
       <c r="E21" s="0">
-        <v>0.00018651964200064867</v>
+        <v>4.7700120909326721e-05</v>
       </c>
     </row>
     <row r="22">
@@ -468,13 +468,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="0">
-        <v>1</v>
+        <v>0.98860735227065022</v>
       </c>
       <c r="D23" s="0">
         <v>950</v>
       </c>
       <c r="E23" s="0">
-        <v>0</v>
+        <v>0.0049392679102993565</v>
       </c>
     </row>
     <row r="24">
@@ -485,13 +485,13 @@
         <v>5.2999999999999998</v>
       </c>
       <c r="C24" s="0">
-        <v>0.93829168974925869</v>
+        <v>0.95318519774762422</v>
       </c>
       <c r="D24" s="0">
         <v>950</v>
       </c>
       <c r="E24" s="0">
-        <v>0.011029847230149784</v>
+        <v>0.0033970905580635925</v>
       </c>
     </row>
     <row r="25">
@@ -502,13 +502,13 @@
         <v>5.5</v>
       </c>
       <c r="C25" s="0">
-        <v>0.79351833313629905</v>
+        <v>0.81792046347481284</v>
       </c>
       <c r="D25" s="0">
         <v>950</v>
       </c>
       <c r="E25" s="0">
-        <v>0.0074819937272733389</v>
+        <v>0.003029558710396933</v>
       </c>
     </row>
     <row r="26">
@@ -519,13 +519,13 @@
         <v>5.7000000000000002</v>
       </c>
       <c r="C26" s="0">
-        <v>0.44855397673325592</v>
+        <v>0.48750198639725612</v>
       </c>
       <c r="D26" s="0">
         <v>950</v>
       </c>
       <c r="E26" s="0">
-        <v>0.0080225592093737391</v>
+        <v>0.0039297384916015688</v>
       </c>
     </row>
     <row r="27">
@@ -536,13 +536,13 @@
         <v>5.9000000000000004</v>
       </c>
       <c r="C27" s="0">
-        <v>0.13886488192603302</v>
+        <v>0.18185568705403093</v>
       </c>
       <c r="D27" s="0">
         <v>950</v>
       </c>
       <c r="E27" s="0">
-        <v>0.0036787941381503778</v>
+        <v>0.003052773975897905</v>
       </c>
     </row>
     <row r="28">
@@ -553,13 +553,13 @@
         <v>6.0999999999999996</v>
       </c>
       <c r="C28" s="0">
-        <v>0.042998206501979955</v>
+        <v>0.063794470047024349</v>
       </c>
       <c r="D28" s="0">
         <v>950</v>
       </c>
       <c r="E28" s="0">
-        <v>0.0014881162984726837</v>
+        <v>0.0010326878543860422</v>
       </c>
     </row>
     <row r="29">
@@ -570,13 +570,13 @@
         <v>6.2999999999999998</v>
       </c>
       <c r="C29" s="0">
-        <v>0.019740310823740993</v>
+        <v>0.029923798937809099</v>
       </c>
       <c r="D29" s="0">
         <v>950</v>
       </c>
       <c r="E29" s="0">
-        <v>0.0011616465837670298</v>
+        <v>0.00083199210300182705</v>
       </c>
     </row>
     <row r="30">
@@ -587,13 +587,13 @@
         <v>6.5</v>
       </c>
       <c r="C30" s="0">
-        <v>0.011302472777411029</v>
+        <v>0.016454259673193236</v>
       </c>
       <c r="D30" s="0">
         <v>950</v>
       </c>
       <c r="E30" s="0">
-        <v>0.00083612799298153162</v>
+        <v>0.00038421472505197778</v>
       </c>
     </row>
     <row r="31">
@@ -604,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="C31" s="0">
-        <v>0.0037782659735671464</v>
+        <v>0.0037487040593285918</v>
       </c>
       <c r="D31" s="0">
         <v>950</v>
       </c>
       <c r="E31" s="0">
-        <v>8.7644302533928342e-06</v>
+        <v>3.3960905575369419e-05</v>
       </c>
     </row>
     <row r="32">
@@ -638,13 +638,13 @@
         <v>5</v>
       </c>
       <c r="C33" s="0">
-        <v>1</v>
+        <v>0.99179017128599722</v>
       </c>
       <c r="D33" s="0">
         <v>1150</v>
       </c>
       <c r="E33" s="0">
-        <v>0</v>
+        <v>0.0034730449442802271</v>
       </c>
     </row>
     <row r="34">
@@ -655,13 +655,13 @@
         <v>5.2999999999999998</v>
       </c>
       <c r="C34" s="0">
-        <v>0.97105917931125418</v>
+        <v>0.9709031476340737</v>
       </c>
       <c r="D34" s="0">
         <v>1150</v>
       </c>
       <c r="E34" s="0">
-        <v>0.0073867822832148003</v>
+        <v>0.0017713901987062859</v>
       </c>
     </row>
     <row r="35">
@@ -672,13 +672,13 @@
         <v>5.5</v>
       </c>
       <c r="C35" s="0">
-        <v>0.93135677575537112</v>
+        <v>0.9310098207322518</v>
       </c>
       <c r="D35" s="0">
         <v>1150</v>
       </c>
       <c r="E35" s="0">
-        <v>0.004713799869301219</v>
+        <v>0.0034461160704980292</v>
       </c>
     </row>
     <row r="36">
@@ -689,13 +689,13 @@
         <v>5.7000000000000002</v>
       </c>
       <c r="C36" s="0">
-        <v>0.76928924318386671</v>
+        <v>0.79451330814249743</v>
       </c>
       <c r="D36" s="0">
         <v>1150</v>
       </c>
       <c r="E36" s="0">
-        <v>0.0070495190098823369</v>
+        <v>0.0050799482201697331</v>
       </c>
     </row>
     <row r="37">
@@ -706,13 +706,13 @@
         <v>5.9000000000000004</v>
       </c>
       <c r="C37" s="0">
-        <v>0.38357324273028059</v>
+        <v>0.40952941394221787</v>
       </c>
       <c r="D37" s="0">
         <v>1150</v>
       </c>
       <c r="E37" s="0">
-        <v>0.003676165769234325</v>
+        <v>0.0035980217221186911</v>
       </c>
     </row>
     <row r="38">
@@ -723,13 +723,13 @@
         <v>6.0999999999999996</v>
       </c>
       <c r="C38" s="0">
-        <v>0.13150767512790118</v>
+        <v>0.15083045714257975</v>
       </c>
       <c r="D38" s="0">
         <v>1150</v>
       </c>
       <c r="E38" s="0">
-        <v>0.0043199782763849379</v>
+        <v>0.0022353146625179315</v>
       </c>
     </row>
     <row r="39">
@@ -740,13 +740,13 @@
         <v>6.2999999999999998</v>
       </c>
       <c r="C39" s="0">
-        <v>0.067170774820347015</v>
+        <v>0.075789537850649194</v>
       </c>
       <c r="D39" s="0">
         <v>1150</v>
       </c>
       <c r="E39" s="0">
-        <v>0.0020348580782422951</v>
+        <v>0.00086123559856151515</v>
       </c>
     </row>
     <row r="40">
@@ -757,13 +757,13 @@
         <v>6.5</v>
       </c>
       <c r="C40" s="0">
-        <v>0.047180223962548874</v>
+        <v>0.049873671968568324</v>
       </c>
       <c r="D40" s="0">
         <v>1150</v>
       </c>
       <c r="E40" s="0">
-        <v>0.0009523302162794022</v>
+        <v>0.0011935350021904808</v>
       </c>
     </row>
     <row r="41">
@@ -774,13 +774,13 @@
         <v>9</v>
       </c>
       <c r="C41" s="0">
-        <v>0.027914261351758146</v>
+        <v>0.027741589451107506</v>
       </c>
       <c r="D41" s="0">
         <v>1150</v>
       </c>
       <c r="E41" s="0">
-        <v>0.00017502600367587604</v>
+        <v>7.5185349846501194e-05</v>
       </c>
     </row>
     <row r="42">
@@ -791,13 +791,13 @@
         <v>6.2000000000000002</v>
       </c>
       <c r="C42" s="0">
-        <v>0.011971687399138783</v>
+        <v>0.0098203400859471161</v>
       </c>
       <c r="D42" s="0">
         <v>950</v>
       </c>
       <c r="E42" s="0">
-        <v>0.00037617743443287666</v>
+        <v>0.00032166240467932413</v>
       </c>
     </row>
     <row r="43">
@@ -808,13 +808,13 @@
         <v>6.2999999999999998</v>
       </c>
       <c r="C43" s="0">
-        <v>0.0095693823637019136</v>
+        <v>0.0083801950672910703</v>
       </c>
       <c r="D43" s="0">
         <v>950</v>
       </c>
       <c r="E43" s="0">
-        <v>0.0003207998051004141</v>
+        <v>0.00017707892011113334</v>
       </c>
     </row>
     <row r="44">
@@ -825,13 +825,13 @@
         <v>6.4000000000000004</v>
       </c>
       <c r="C44" s="0">
-        <v>0.0079356599974192994</v>
+        <v>0.0075913904448780406</v>
       </c>
       <c r="D44" s="0">
         <v>950</v>
       </c>
       <c r="E44" s="0">
-        <v>0.00023845216817383171</v>
+        <v>0.00022155239473505299</v>
       </c>
     </row>
     <row r="45">
@@ -842,13 +842,13 @@
         <v>6.5</v>
       </c>
       <c r="C45" s="0">
-        <v>0.0073095917661806509</v>
+        <v>0.0064979163313686446</v>
       </c>
       <c r="D45" s="0">
         <v>950</v>
       </c>
       <c r="E45" s="0">
-        <v>0.00010441230197384155</v>
+        <v>0.00027912583251857829</v>
       </c>
     </row>
     <row r="46">
@@ -859,13 +859,13 @@
         <v>9</v>
       </c>
       <c r="C46" s="0">
-        <v>0.005363359588456902</v>
+        <v>0.0049273691038097577</v>
       </c>
       <c r="D46" s="0">
         <v>950</v>
       </c>
       <c r="E46" s="0">
-        <v>9.3162549905283093e-06</v>
+        <v>1.0644858691507024e-05</v>
       </c>
     </row>
     <row r="47">
@@ -893,13 +893,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C48" s="0">
-        <v>0.99074241694886123</v>
+        <v>0.99254242349476218</v>
       </c>
       <c r="D48" s="0">
         <v>1150</v>
       </c>
       <c r="E48" s="0">
-        <v>0.0016456391836362121</v>
+        <v>0.001627663790970212</v>
       </c>
     </row>
     <row r="49">
@@ -910,13 +910,13 @@
         <v>5.2999999999999998</v>
       </c>
       <c r="C49" s="0">
-        <v>0.97402704920470173</v>
+        <v>0.98388649538117201</v>
       </c>
       <c r="D49" s="0">
         <v>1150</v>
       </c>
       <c r="E49" s="0">
-        <v>0.0014612896653627392</v>
+        <v>0.001714562930011525</v>
       </c>
     </row>
     <row r="50">
@@ -927,13 +927,13 @@
         <v>5.5</v>
       </c>
       <c r="C50" s="0">
-        <v>0.91172075307677714</v>
+        <v>0.95566012842164838</v>
       </c>
       <c r="D50" s="0">
         <v>1150</v>
       </c>
       <c r="E50" s="0">
-        <v>0.0025237181949913012</v>
+        <v>0.0016700954519411546</v>
       </c>
     </row>
     <row r="51">
@@ -944,13 +944,13 @@
         <v>5.5999999999999996</v>
       </c>
       <c r="C51" s="0">
-        <v>0.86497746215967852</v>
+        <v>0.93058251607549969</v>
       </c>
       <c r="D51" s="0">
         <v>1150</v>
       </c>
       <c r="E51" s="0">
-        <v>0.0018347289621688293</v>
+        <v>0.0022033654453625672</v>
       </c>
     </row>
     <row r="52">
@@ -961,13 +961,13 @@
         <v>5.7000000000000002</v>
       </c>
       <c r="C52" s="0">
-        <v>0.82300308714587389</v>
+        <v>0.89013527312680674</v>
       </c>
       <c r="D52" s="0">
         <v>1150</v>
       </c>
       <c r="E52" s="0">
-        <v>0.0018557073161898339</v>
+        <v>0.0014907481659548721</v>
       </c>
     </row>
     <row r="53">
@@ -978,13 +978,13 @@
         <v>5.7999999999999998</v>
       </c>
       <c r="C53" s="0">
-        <v>0.77748003555154954</v>
+        <v>0.82184509319024213</v>
       </c>
       <c r="D53" s="0">
         <v>1150</v>
       </c>
       <c r="E53" s="0">
-        <v>0.002092719222317828</v>
+        <v>0.0026269357286163937</v>
       </c>
     </row>
     <row r="54">
@@ -995,13 +995,13 @@
         <v>5.9000000000000004</v>
       </c>
       <c r="C54" s="0">
-        <v>0.72746725280014957</v>
+        <v>0.67163878688892698</v>
       </c>
       <c r="D54" s="0">
         <v>1150</v>
       </c>
       <c r="E54" s="0">
-        <v>0.0030903788275192853</v>
+        <v>0.0032833546149088348</v>
       </c>
     </row>
     <row r="55">
@@ -1012,13 +1012,13 @@
         <v>6</v>
       </c>
       <c r="C55" s="0">
-        <v>0.65845907919180446</v>
+        <v>0.47594115589916564</v>
       </c>
       <c r="D55" s="0">
         <v>1150</v>
       </c>
       <c r="E55" s="0">
-        <v>0.003162717399243752</v>
+        <v>0.0045787538494335821</v>
       </c>
     </row>
     <row r="56">
@@ -1029,13 +1029,13 @@
         <v>6.0999999999999996</v>
       </c>
       <c r="C56" s="0">
-        <v>0.53877629489825218</v>
+        <v>0.24260218793546082</v>
       </c>
       <c r="D56" s="0">
         <v>1150</v>
       </c>
       <c r="E56" s="0">
-        <v>0.0049811884119513802</v>
+        <v>0.0040949909876842223</v>
       </c>
     </row>
     <row r="57">
@@ -1046,13 +1046,13 @@
         <v>6.2000000000000002</v>
       </c>
       <c r="C57" s="0">
-        <v>0.30709321692965447</v>
+        <v>0.10493285934179648</v>
       </c>
       <c r="D57" s="0">
         <v>1150</v>
       </c>
       <c r="E57" s="0">
-        <v>0.0066620699714519793</v>
+        <v>0.001886820076192085</v>
       </c>
     </row>
     <row r="58">
@@ -1063,13 +1063,13 @@
         <v>6.2999999999999998</v>
       </c>
       <c r="C58" s="0">
-        <v>0.11899111526124909</v>
+        <v>0.059990312018037638</v>
       </c>
       <c r="D58" s="0">
         <v>1150</v>
       </c>
       <c r="E58" s="0">
-        <v>0.0045441600276212371</v>
+        <v>0.0011732944214744008</v>
       </c>
     </row>
     <row r="59">
@@ -1080,13 +1080,13 @@
         <v>6.4000000000000004</v>
       </c>
       <c r="C59" s="0">
-        <v>0.064800771295020543</v>
+        <v>0.047688995431994896</v>
       </c>
       <c r="D59" s="0">
         <v>1150</v>
       </c>
       <c r="E59" s="0">
-        <v>0.0013153313031317388</v>
+        <v>0.00077307032021832923</v>
       </c>
     </row>
     <row r="60">
@@ -1097,13 +1097,13 @@
         <v>6.5</v>
       </c>
       <c r="C60" s="0">
-        <v>0.051018445718920599</v>
+        <v>0.043277514235502128</v>
       </c>
       <c r="D60" s="0">
         <v>1150</v>
       </c>
       <c r="E60" s="0">
-        <v>0.00059260945337104168</v>
+        <v>0.00059243879871198504</v>
       </c>
     </row>
     <row r="61">
@@ -1114,13 +1114,13 @@
         <v>9</v>
       </c>
       <c r="C61" s="0">
-        <v>0.036500215825959831</v>
+        <v>0.035822789879262566</v>
       </c>
       <c r="D61" s="0">
         <v>1150</v>
       </c>
       <c r="E61" s="0">
-        <v>8.7434576983905956e-05</v>
+        <v>3.4597674621246603e-05</v>
       </c>
     </row>
   </sheetData>

--- a/MATLAB_code/mean_summary_pCa.xlsx
+++ b/MATLAB_code/mean_summary_pCa.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="260" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="540" uniqueCount="5">
   <si>
     <t>curve</t>
   </si>
@@ -125,16 +125,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C3" s="0">
-        <v>0.9848335210026512</v>
+        <v>0.99274613649477972</v>
       </c>
       <c r="D3" s="0">
         <v>950</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0048107431485077427</v>
+        <v>0.0045294644076470077</v>
       </c>
     </row>
     <row r="4">
@@ -145,13 +145,13 @@
         <v>5.2999999999999998</v>
       </c>
       <c r="C4" s="0">
-        <v>0.91067996707135923</v>
+        <v>0.94040632438556826</v>
       </c>
       <c r="D4" s="0">
         <v>950</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0041688685307473263</v>
+        <v>0.0030371389111910076</v>
       </c>
     </row>
     <row r="5">
@@ -162,13 +162,13 @@
         <v>5.5</v>
       </c>
       <c r="C5" s="0">
-        <v>0.70129573238443843</v>
+        <v>0.52655784512751502</v>
       </c>
       <c r="D5" s="0">
         <v>950</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0039448261754047578</v>
+        <v>0.0027107653130273167</v>
       </c>
     </row>
     <row r="6">
@@ -176,16 +176,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>5.7000000000000002</v>
+        <v>5.5999999999999996</v>
       </c>
       <c r="C6" s="0">
-        <v>0.32667189650613471</v>
+        <v>0.22130464616592013</v>
       </c>
       <c r="D6" s="0">
         <v>950</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0046410086730328598</v>
+        <v>0.0018185041943788918</v>
       </c>
     </row>
     <row r="7">
@@ -193,16 +193,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>5.9000000000000004</v>
+        <v>5.7000000000000002</v>
       </c>
       <c r="C7" s="0">
-        <v>0.070267049262747225</v>
+        <v>0.10033350556029666</v>
       </c>
       <c r="D7" s="0">
         <v>950</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0018295882804855183</v>
+        <v>0.0017177805777923176</v>
       </c>
     </row>
     <row r="8">
@@ -210,16 +210,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>6.0999999999999996</v>
+        <v>5.7999999999999998</v>
       </c>
       <c r="C8" s="0">
-        <v>0.028218515026008584</v>
+        <v>0.050973241370808567</v>
       </c>
       <c r="D8" s="0">
         <v>950</v>
       </c>
       <c r="E8" s="0">
-        <v>0.00084755384829973148</v>
+        <v>0.0014828880652295214</v>
       </c>
     </row>
     <row r="9">
@@ -227,16 +227,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>6.2999999999999998</v>
+        <v>5.9000000000000004</v>
       </c>
       <c r="C9" s="0">
-        <v>0.014909240411142161</v>
+        <v>0.032595884170674508</v>
       </c>
       <c r="D9" s="0">
         <v>950</v>
       </c>
       <c r="E9" s="0">
-        <v>0.0008770140518045103</v>
+        <v>0.00087441215099257898</v>
       </c>
     </row>
     <row r="10">
@@ -244,16 +244,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="0">
-        <v>0.010507588603787279</v>
+        <v>0.022092316339891685</v>
       </c>
       <c r="D10" s="0">
         <v>950</v>
       </c>
       <c r="E10" s="0">
-        <v>0.00036145892040879914</v>
+        <v>0.00054239227888460448</v>
       </c>
     </row>
     <row r="11">
@@ -261,101 +261,101 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>9</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="C11" s="0">
-        <v>0.004104155889781756</v>
+        <v>0.018584541627675442</v>
       </c>
       <c r="D11" s="0">
         <v>950</v>
       </c>
       <c r="E11" s="0">
-        <v>1.9921308043105836e-05</v>
+        <v>0.0005283884030184028</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>4.5</v>
+        <v>6.2000000000000002</v>
       </c>
       <c r="C12" s="0">
-        <v>1</v>
+        <v>0.015496176611929402</v>
       </c>
       <c r="D12" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E12" s="0">
-        <v>0</v>
+        <v>0.00052698381034058594</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>5</v>
+        <v>6.2999999999999998</v>
       </c>
       <c r="C13" s="0">
-        <v>0.99005445984999518</v>
+        <v>0.013577854861867671</v>
       </c>
       <c r="D13" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E13" s="0">
-        <v>0.0023354639461308389</v>
+        <v>0.00039835928831370287</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>5.2999999999999998</v>
+        <v>6.4000000000000004</v>
       </c>
       <c r="C14" s="0">
-        <v>0.96929638695690312</v>
+        <v>0.011975212340507593</v>
       </c>
       <c r="D14" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E14" s="0">
-        <v>0.0026642430985699388</v>
+        <v>0.00019428615324235127</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C15" s="0">
-        <v>0.90617366599390847</v>
+        <v>0.011473923520733795</v>
       </c>
       <c r="D15" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E15" s="0">
-        <v>0.0043796092711529686</v>
+        <v>0.00015123613604857422</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>5.7000000000000002</v>
+        <v>9</v>
       </c>
       <c r="C16" s="0">
-        <v>0.6260533680609407</v>
+        <v>0.0093210949423333765</v>
       </c>
       <c r="D16" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E16" s="0">
-        <v>0.0038258200353937411</v>
+        <v>2.5111186638654009e-05</v>
       </c>
     </row>
     <row r="17">
@@ -363,16 +363,16 @@
         <v>2</v>
       </c>
       <c r="B17" s="0">
-        <v>5.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="C17" s="0">
-        <v>0.22759465752734553</v>
+        <v>1</v>
       </c>
       <c r="D17" s="0">
         <v>1150</v>
       </c>
       <c r="E17" s="0">
-        <v>0.0021863728567273178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -380,16 +380,16 @@
         <v>2</v>
       </c>
       <c r="B18" s="0">
-        <v>6.0999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C18" s="0">
-        <v>0.082252415403091639</v>
+        <v>0.9832193056241566</v>
       </c>
       <c r="D18" s="0">
         <v>1150</v>
       </c>
       <c r="E18" s="0">
-        <v>0.0011927119550708145</v>
+        <v>0.0036257246292372893</v>
       </c>
     </row>
     <row r="19">
@@ -397,16 +397,16 @@
         <v>2</v>
       </c>
       <c r="B19" s="0">
-        <v>6.2999999999999998</v>
+        <v>5.2999999999999998</v>
       </c>
       <c r="C19" s="0">
-        <v>0.050601609324554361</v>
+        <v>0.93883315385397503</v>
       </c>
       <c r="D19" s="0">
         <v>1150</v>
       </c>
       <c r="E19" s="0">
-        <v>0.00087020907242312364</v>
+        <v>0.0037049675804730294</v>
       </c>
     </row>
     <row r="20">
@@ -414,16 +414,16 @@
         <v>2</v>
       </c>
       <c r="B20" s="0">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C20" s="0">
-        <v>0.040916391480982459</v>
+        <v>0.7523779838161837</v>
       </c>
       <c r="D20" s="0">
         <v>1150</v>
       </c>
       <c r="E20" s="0">
-        <v>0.00046847143725777836</v>
+        <v>0.0032743071328261773</v>
       </c>
     </row>
     <row r="21">
@@ -431,191 +431,191 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>9</v>
+        <v>5.5999999999999996</v>
       </c>
       <c r="C21" s="0">
-        <v>0.028973168736875686</v>
+        <v>0.5153848493701465</v>
       </c>
       <c r="D21" s="0">
         <v>1150</v>
       </c>
       <c r="E21" s="0">
-        <v>4.7700120909326721e-05</v>
+        <v>0.0050906382176451586</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>4.5</v>
+        <v>5.7000000000000002</v>
       </c>
       <c r="C22" s="0">
-        <v>1</v>
+        <v>0.25739251865726614</v>
       </c>
       <c r="D22" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E22" s="0">
-        <v>0</v>
+        <v>0.0038883325744398962</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>5</v>
+        <v>5.7999999999999998</v>
       </c>
       <c r="C23" s="0">
-        <v>0.98860735227065022</v>
+        <v>0.14183289124574308</v>
       </c>
       <c r="D23" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E23" s="0">
-        <v>0.0049392679102993565</v>
+        <v>0.0020101998212119559</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>5.2999999999999998</v>
+        <v>5.9000000000000004</v>
       </c>
       <c r="C24" s="0">
-        <v>0.95318519774762422</v>
+        <v>0.097999724219888507</v>
       </c>
       <c r="D24" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E24" s="0">
-        <v>0.0033970905580635925</v>
+        <v>0.0011132637515157819</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="0">
-        <v>0.81792046347481284</v>
+        <v>0.081715966883250002</v>
       </c>
       <c r="D25" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E25" s="0">
-        <v>0.003029558710396933</v>
+        <v>0.00079925278989272715</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>5.7000000000000002</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="C26" s="0">
-        <v>0.48750198639725612</v>
+        <v>0.074788376609022988</v>
       </c>
       <c r="D26" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E26" s="0">
-        <v>0.0039297384916015688</v>
+        <v>0.00082001253867287969</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>5.9000000000000004</v>
+        <v>6.2000000000000002</v>
       </c>
       <c r="C27" s="0">
-        <v>0.18185568705403093</v>
+        <v>0.069036419939356053</v>
       </c>
       <c r="D27" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E27" s="0">
-        <v>0.003052773975897905</v>
+        <v>0.00057653995896033848</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>6.0999999999999996</v>
+        <v>6.2999999999999998</v>
       </c>
       <c r="C28" s="0">
-        <v>0.063794470047024349</v>
+        <v>0.066633395410941529</v>
       </c>
       <c r="D28" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E28" s="0">
-        <v>0.0010326878543860422</v>
+        <v>0.00052335135292979913</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>6.2999999999999998</v>
+        <v>6.4000000000000004</v>
       </c>
       <c r="C29" s="0">
-        <v>0.029923798937809099</v>
+        <v>0.064612906173058718</v>
       </c>
       <c r="D29" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E29" s="0">
-        <v>0.00083199210300182705</v>
+        <v>0.00044251260073860149</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" s="0">
         <v>6.5</v>
       </c>
       <c r="C30" s="0">
-        <v>0.016454259673193236</v>
+        <v>0.063554482879972368</v>
       </c>
       <c r="D30" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E30" s="0">
-        <v>0.00038421472505197778</v>
+        <v>0.00029933315285252143</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" s="0">
         <v>9</v>
       </c>
       <c r="C31" s="0">
-        <v>0.0037487040593285918</v>
+        <v>0.061004774068723823</v>
       </c>
       <c r="D31" s="0">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E31" s="0">
-        <v>3.3960905575369419e-05</v>
+        <v>0.00020067756459344555</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="0">
         <v>4.5</v>
@@ -624,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E32" s="0">
         <v>0</v>
@@ -632,155 +632,155 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="0">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C33" s="0">
-        <v>0.99179017128599722</v>
+        <v>0.99208763866048211</v>
       </c>
       <c r="D33" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E33" s="0">
-        <v>0.0034730449442802271</v>
+        <v>0.002803575891695199</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="0">
         <v>5.2999999999999998</v>
       </c>
       <c r="C34" s="0">
-        <v>0.9709031476340737</v>
+        <v>0.97048796996686959</v>
       </c>
       <c r="D34" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E34" s="0">
-        <v>0.0017713901987062859</v>
+        <v>0.0032898468912888855</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="0">
         <v>5.5</v>
       </c>
       <c r="C35" s="0">
-        <v>0.9310098207322518</v>
+        <v>0.90564608529039925</v>
       </c>
       <c r="D35" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E35" s="0">
-        <v>0.0034461160704980292</v>
+        <v>0.0029242859077205016</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" s="0">
-        <v>5.7000000000000002</v>
+        <v>5.5999999999999996</v>
       </c>
       <c r="C36" s="0">
-        <v>0.79451330814249743</v>
+        <v>0.85299792246089845</v>
       </c>
       <c r="D36" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E36" s="0">
-        <v>0.0050799482201697331</v>
+        <v>0.0026688751205947792</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" s="0">
-        <v>5.9000000000000004</v>
+        <v>5.7000000000000002</v>
       </c>
       <c r="C37" s="0">
-        <v>0.40952941394221787</v>
+        <v>0.76915435983764746</v>
       </c>
       <c r="D37" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E37" s="0">
-        <v>0.0035980217221186911</v>
+        <v>0.0041929643478656924</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="0">
-        <v>6.0999999999999996</v>
+        <v>5.7999999999999998</v>
       </c>
       <c r="C38" s="0">
-        <v>0.15083045714257975</v>
+        <v>0.61900806549947829</v>
       </c>
       <c r="D38" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E38" s="0">
-        <v>0.0022353146625179315</v>
+        <v>0.0030575111575363374</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" s="0">
-        <v>6.2999999999999998</v>
+        <v>5.9000000000000004</v>
       </c>
       <c r="C39" s="0">
-        <v>0.075789537850649194</v>
+        <v>0.20675399305976588</v>
       </c>
       <c r="D39" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E39" s="0">
-        <v>0.00086123559856151515</v>
+        <v>0.006902741055529499</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" s="0">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="0">
-        <v>0.049873671968568324</v>
+        <v>0.034476586925407379</v>
       </c>
       <c r="D40" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E40" s="0">
-        <v>0.0011935350021904808</v>
+        <v>0.001968836220823055</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="0">
-        <v>9</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="C41" s="0">
-        <v>0.027741589451107506</v>
+        <v>0.016468035946070131</v>
       </c>
       <c r="D41" s="0">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E41" s="0">
-        <v>7.5185349846501194e-05</v>
+        <v>0.00096648164324934186</v>
       </c>
     </row>
     <row r="42">
@@ -791,13 +791,13 @@
         <v>6.2000000000000002</v>
       </c>
       <c r="C42" s="0">
-        <v>0.0098203400859471161</v>
+        <v>0.011971687399138783</v>
       </c>
       <c r="D42" s="0">
         <v>950</v>
       </c>
       <c r="E42" s="0">
-        <v>0.00032166240467932413</v>
+        <v>0.00037617743443287666</v>
       </c>
     </row>
     <row r="43">
@@ -808,13 +808,13 @@
         <v>6.2999999999999998</v>
       </c>
       <c r="C43" s="0">
-        <v>0.0083801950672910703</v>
+        <v>0.0095693823637019136</v>
       </c>
       <c r="D43" s="0">
         <v>950</v>
       </c>
       <c r="E43" s="0">
-        <v>0.00017707892011113334</v>
+        <v>0.0003207998051004141</v>
       </c>
     </row>
     <row r="44">
@@ -825,13 +825,13 @@
         <v>6.4000000000000004</v>
       </c>
       <c r="C44" s="0">
-        <v>0.0075913904448780406</v>
+        <v>0.0079356599974192994</v>
       </c>
       <c r="D44" s="0">
         <v>950</v>
       </c>
       <c r="E44" s="0">
-        <v>0.00022155239473505299</v>
+        <v>0.00023845216817383171</v>
       </c>
     </row>
     <row r="45">
@@ -842,13 +842,13 @@
         <v>6.5</v>
       </c>
       <c r="C45" s="0">
-        <v>0.0064979163313686446</v>
+        <v>0.0073095917661806509</v>
       </c>
       <c r="D45" s="0">
         <v>950</v>
       </c>
       <c r="E45" s="0">
-        <v>0.00027912583251857829</v>
+        <v>0.00010441230197384155</v>
       </c>
     </row>
     <row r="46">
@@ -859,13 +859,13 @@
         <v>9</v>
       </c>
       <c r="C46" s="0">
-        <v>0.0049273691038097577</v>
+        <v>0.005363359588456902</v>
       </c>
       <c r="D46" s="0">
         <v>950</v>
       </c>
       <c r="E46" s="0">
-        <v>1.0644858691507024e-05</v>
+        <v>9.3162549905283093e-06</v>
       </c>
     </row>
     <row r="47">
@@ -893,13 +893,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C48" s="0">
-        <v>0.99254242349476218</v>
+        <v>0.99074241694886123</v>
       </c>
       <c r="D48" s="0">
         <v>1150</v>
       </c>
       <c r="E48" s="0">
-        <v>0.001627663790970212</v>
+        <v>0.0016456391836362121</v>
       </c>
     </row>
     <row r="49">
@@ -910,13 +910,13 @@
         <v>5.2999999999999998</v>
       </c>
       <c r="C49" s="0">
-        <v>0.98388649538117201</v>
+        <v>0.97402704920470173</v>
       </c>
       <c r="D49" s="0">
         <v>1150</v>
       </c>
       <c r="E49" s="0">
-        <v>0.001714562930011525</v>
+        <v>0.0014612896653627392</v>
       </c>
     </row>
     <row r="50">
@@ -927,13 +927,13 @@
         <v>5.5</v>
       </c>
       <c r="C50" s="0">
-        <v>0.95566012842164838</v>
+        <v>0.91172075307677714</v>
       </c>
       <c r="D50" s="0">
         <v>1150</v>
       </c>
       <c r="E50" s="0">
-        <v>0.0016700954519411546</v>
+        <v>0.0025237181949913012</v>
       </c>
     </row>
     <row r="51">
@@ -944,13 +944,13 @@
         <v>5.5999999999999996</v>
       </c>
       <c r="C51" s="0">
-        <v>0.93058251607549969</v>
+        <v>0.86497746215967852</v>
       </c>
       <c r="D51" s="0">
         <v>1150</v>
       </c>
       <c r="E51" s="0">
-        <v>0.0022033654453625672</v>
+        <v>0.0018347289621688293</v>
       </c>
     </row>
     <row r="52">
@@ -961,13 +961,13 @@
         <v>5.7000000000000002</v>
       </c>
       <c r="C52" s="0">
-        <v>0.89013527312680674</v>
+        <v>0.82300308714587389</v>
       </c>
       <c r="D52" s="0">
         <v>1150</v>
       </c>
       <c r="E52" s="0">
-        <v>0.0014907481659548721</v>
+        <v>0.0018557073161898339</v>
       </c>
     </row>
     <row r="53">
@@ -978,13 +978,13 @@
         <v>5.7999999999999998</v>
       </c>
       <c r="C53" s="0">
-        <v>0.82184509319024213</v>
+        <v>0.77748003555154954</v>
       </c>
       <c r="D53" s="0">
         <v>1150</v>
       </c>
       <c r="E53" s="0">
-        <v>0.0026269357286163937</v>
+        <v>0.002092719222317828</v>
       </c>
     </row>
     <row r="54">
@@ -995,13 +995,13 @@
         <v>5.9000000000000004</v>
       </c>
       <c r="C54" s="0">
-        <v>0.67163878688892698</v>
+        <v>0.72746725280014957</v>
       </c>
       <c r="D54" s="0">
         <v>1150</v>
       </c>
       <c r="E54" s="0">
-        <v>0.0032833546149088348</v>
+        <v>0.0030903788275192853</v>
       </c>
     </row>
     <row r="55">
@@ -1012,13 +1012,13 @@
         <v>6</v>
       </c>
       <c r="C55" s="0">
-        <v>0.47594115589916564</v>
+        <v>0.65845907919180446</v>
       </c>
       <c r="D55" s="0">
         <v>1150</v>
       </c>
       <c r="E55" s="0">
-        <v>0.0045787538494335821</v>
+        <v>0.003162717399243752</v>
       </c>
     </row>
     <row r="56">
@@ -1029,13 +1029,13 @@
         <v>6.0999999999999996</v>
       </c>
       <c r="C56" s="0">
-        <v>0.24260218793546082</v>
+        <v>0.53877629489825218</v>
       </c>
       <c r="D56" s="0">
         <v>1150</v>
       </c>
       <c r="E56" s="0">
-        <v>0.0040949909876842223</v>
+        <v>0.0049811884119513802</v>
       </c>
     </row>
     <row r="57">
@@ -1046,13 +1046,13 @@
         <v>6.2000000000000002</v>
       </c>
       <c r="C57" s="0">
-        <v>0.10493285934179648</v>
+        <v>0.30709321692965447</v>
       </c>
       <c r="D57" s="0">
         <v>1150</v>
       </c>
       <c r="E57" s="0">
-        <v>0.001886820076192085</v>
+        <v>0.0066620699714519793</v>
       </c>
     </row>
     <row r="58">
@@ -1063,13 +1063,13 @@
         <v>6.2999999999999998</v>
       </c>
       <c r="C58" s="0">
-        <v>0.059990312018037638</v>
+        <v>0.11899111526124909</v>
       </c>
       <c r="D58" s="0">
         <v>1150</v>
       </c>
       <c r="E58" s="0">
-        <v>0.0011732944214744008</v>
+        <v>0.0045441600276212371</v>
       </c>
     </row>
     <row r="59">
@@ -1080,13 +1080,13 @@
         <v>6.4000000000000004</v>
       </c>
       <c r="C59" s="0">
-        <v>0.047688995431994896</v>
+        <v>0.064800771295020543</v>
       </c>
       <c r="D59" s="0">
         <v>1150</v>
       </c>
       <c r="E59" s="0">
-        <v>0.00077307032021832923</v>
+        <v>0.0013153313031317388</v>
       </c>
     </row>
     <row r="60">
@@ -1097,13 +1097,13 @@
         <v>6.5</v>
       </c>
       <c r="C60" s="0">
-        <v>0.043277514235502128</v>
+        <v>0.051018445718920599</v>
       </c>
       <c r="D60" s="0">
         <v>1150</v>
       </c>
       <c r="E60" s="0">
-        <v>0.00059243879871198504</v>
+        <v>0.00059260945337104168</v>
       </c>
     </row>
     <row r="61">
@@ -1114,13 +1114,13 @@
         <v>9</v>
       </c>
       <c r="C61" s="0">
-        <v>0.035822789879262566</v>
+        <v>0.036500215825959831</v>
       </c>
       <c r="D61" s="0">
         <v>1150</v>
       </c>
       <c r="E61" s="0">
-        <v>3.4597674621246603e-05</v>
+        <v>8.7434576983905956e-05</v>
       </c>
     </row>
   </sheetData>
